--- a/_p_ADAPTOmics/_I_Desiree/_S_multiOmics/_A_multiOmicsStat-R/reports/Desiree.stat-omics-leaves.xlsx
+++ b/_p_ADAPTOmics/_I_Desiree/_S_multiOmics/_A_multiOmicsStat-R/reports/Desiree.stat-omics-leaves.xlsx
@@ -1,1609 +1,1616 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majaz\Desktop\GitHub\multiOmics-integration\_p_ADAPTOmics\_I_Desiree\_S_multiOmics\_A_multiOmicsStat-R\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0FAF47-C8CC-403B-943C-C00629BF5EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1260" yWindow="-120" windowWidth="29580" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="528">
-  <si>
-    <t xml:space="preserve">Variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D08 | PermP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D08 | WelchP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D14 | PermP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D14 | WelchP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H01 | PermP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H01 | WelchP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07 | PermP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07 | WelchP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08 | PermP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H08 | WelchP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H14 | PermP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H14 | WelchP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HD08 | PermP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HD08 | WelchP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HD14 | PermP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HD14 | WelchP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W01 | PermP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W01 | WelchP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W07 | PermP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W07 | WelchP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-OH-JA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-LOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,10-dhJA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cisOPDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fructose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glucose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">His</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSP70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAA-Asp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JA-Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M0ZJG3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Met</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxIAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RbohA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD29B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SnRK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP6A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sucrose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWEET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Val</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.270</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="528">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>D08 | PermP</t>
+  </si>
+  <si>
+    <t>D08 | WelchP</t>
+  </si>
+  <si>
+    <t>D14 | PermP</t>
+  </si>
+  <si>
+    <t>D14 | WelchP</t>
+  </si>
+  <si>
+    <t>H01 | PermP</t>
+  </si>
+  <si>
+    <t>H01 | WelchP</t>
+  </si>
+  <si>
+    <t>H07 | PermP</t>
+  </si>
+  <si>
+    <t>H07 | WelchP</t>
+  </si>
+  <si>
+    <t>H08 | PermP</t>
+  </si>
+  <si>
+    <t>H08 | WelchP</t>
+  </si>
+  <si>
+    <t>H14 | PermP</t>
+  </si>
+  <si>
+    <t>H14 | WelchP</t>
+  </si>
+  <si>
+    <t>HD08 | PermP</t>
+  </si>
+  <si>
+    <t>HD08 | WelchP</t>
+  </si>
+  <si>
+    <t>HD14 | PermP</t>
+  </si>
+  <si>
+    <t>HD14 | WelchP</t>
+  </si>
+  <si>
+    <t>W01 | PermP</t>
+  </si>
+  <si>
+    <t>W01 | WelchP</t>
+  </si>
+  <si>
+    <t>W07 | PermP</t>
+  </si>
+  <si>
+    <t>W07 | WelchP</t>
+  </si>
+  <si>
+    <t>12-OH-JA</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.830</t>
+  </si>
+  <si>
+    <t>0.866</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.480</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>13-LOX</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.782</t>
+  </si>
+  <si>
+    <t>0.820</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.294</t>
+  </si>
+  <si>
+    <t>0.030</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>0.114</t>
+  </si>
+  <si>
+    <t>0.160</t>
+  </si>
+  <si>
+    <t>0.087</t>
+  </si>
+  <si>
+    <t>0.127</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>9,10-dhJA</t>
+  </si>
+  <si>
+    <t>0.228</t>
+  </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>0.896</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>0.263</t>
+  </si>
+  <si>
+    <t>0.291</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.142</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>ABA</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.010</t>
+  </si>
+  <si>
+    <t>0.156</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>0.057</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.167</t>
+  </si>
+  <si>
+    <t>0.186</t>
+  </si>
+  <si>
+    <t>0.760</t>
+  </si>
+  <si>
+    <t>0.836</t>
+  </si>
+  <si>
+    <t>ACO2</t>
+  </si>
+  <si>
+    <t>0.902</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>0.020</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.126</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>0.892</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>0.320</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.791</t>
+  </si>
+  <si>
+    <t>0.859</t>
+  </si>
+  <si>
+    <t>0.117</t>
+  </si>
+  <si>
+    <t>0.737</t>
+  </si>
+  <si>
+    <t>0.785</t>
+  </si>
+  <si>
+    <t>0.690</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>Arg</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>0.102</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>0.341</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>Asn</t>
+  </si>
+  <si>
+    <t>0.837</t>
+  </si>
+  <si>
+    <t>0.204</t>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t>0.183</t>
+  </si>
+  <si>
+    <t>0.232</t>
+  </si>
+  <si>
+    <t>0.264</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.334</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>0.463</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>0.121</t>
+  </si>
+  <si>
+    <t>Asp</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.393</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>0.080</t>
+  </si>
+  <si>
+    <t>0.110</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.666</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>0.271</t>
+  </si>
+  <si>
+    <t>CAT1</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.260</t>
+  </si>
+  <si>
+    <t>0.223</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.237</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>0.305</t>
+  </si>
+  <si>
+    <t>0.230</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>cisOPDA</t>
+  </si>
+  <si>
+    <t>0.200</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>0.875</t>
+  </si>
+  <si>
+    <t>0.900</t>
+  </si>
+  <si>
+    <t>0.405</t>
+  </si>
+  <si>
+    <t>0.510</t>
+  </si>
+  <si>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>0.139</t>
+  </si>
+  <si>
+    <t>0.819</t>
+  </si>
+  <si>
+    <t>0.113</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>DPA</t>
+  </si>
+  <si>
+    <t>0.205</t>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>ERF1</t>
+  </si>
+  <si>
+    <t>0.585</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>0.506</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.060</t>
+  </si>
+  <si>
+    <t>Fructose</t>
+  </si>
+  <si>
+    <t>0.140</t>
+  </si>
+  <si>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.520</t>
+  </si>
+  <si>
+    <t>0.201</t>
+  </si>
+  <si>
+    <t>0.363</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>0.280</t>
+  </si>
+  <si>
+    <t>Gln</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.918</t>
+  </si>
+  <si>
+    <t>0.885</t>
+  </si>
+  <si>
+    <t>0.134</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.658</t>
+  </si>
+  <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>0.130</t>
+  </si>
+  <si>
+    <t>0.526</t>
+  </si>
+  <si>
+    <t>0.540</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>0.302</t>
+  </si>
+  <si>
+    <t>0.267</t>
+  </si>
+  <si>
+    <t>Glu</t>
+  </si>
+  <si>
+    <t>0.350</t>
+  </si>
+  <si>
+    <t>0.149</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.236</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t>Gly</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>0.796</t>
+  </si>
+  <si>
+    <t>0.850</t>
+  </si>
+  <si>
+    <t>0.340</t>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.835</t>
+  </si>
+  <si>
+    <t>0.810</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>His</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.116</t>
+  </si>
+  <si>
+    <t>0.158</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>HSP70</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>0.212</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>0.443</t>
+  </si>
+  <si>
+    <t>0.159</t>
+  </si>
+  <si>
+    <t>0.178</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>IAA</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>0.552</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.398</t>
+  </si>
+  <si>
+    <t>0.433</t>
+  </si>
+  <si>
+    <t>0.132</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.430</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t>IAA-Asp</t>
+  </si>
+  <si>
+    <t>0.274</t>
+  </si>
+  <si>
+    <t>0.153</t>
+  </si>
+  <si>
+    <t>0.831</t>
+  </si>
+  <si>
+    <t>0.880</t>
+  </si>
+  <si>
+    <t>0.790</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.460</t>
+  </si>
+  <si>
+    <t>0.511</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.904</t>
+  </si>
+  <si>
+    <t>0.290</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>Ile</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>0.472</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>0.308</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>0.494</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>JA-Ile</t>
+  </si>
+  <si>
+    <t>0.403</t>
+  </si>
+  <si>
+    <t>0.442</t>
+  </si>
+  <si>
+    <t>0.868</t>
+  </si>
+  <si>
+    <t>0.752</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>Leu</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>0.168</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.964</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>Lys</t>
+  </si>
+  <si>
+    <t>0.856</t>
+  </si>
+  <si>
+    <t>0.853</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.155</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>0.215</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>0.910</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.133</t>
+  </si>
+  <si>
+    <t>0.190</t>
+  </si>
+  <si>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>0.834</t>
+  </si>
+  <si>
+    <t>0.891</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.470</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.700</t>
+  </si>
+  <si>
+    <t>0.217</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>0.441</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.633</t>
+  </si>
+  <si>
+    <t>0.516</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.224</t>
+  </si>
+  <si>
+    <t>oxIAA</t>
+  </si>
+  <si>
+    <t>0.876</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.911</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>0.461</t>
+  </si>
+  <si>
+    <t>0.446</t>
+  </si>
+  <si>
+    <t>0.467</t>
+  </si>
+  <si>
+    <t>0.600</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>P5CS</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>0.199</t>
+  </si>
+  <si>
+    <t>Phe</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.453</t>
+  </si>
+  <si>
+    <t>0.416</t>
+  </si>
+  <si>
+    <t>0.164</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>PR1b</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>0.489</t>
+  </si>
+  <si>
+    <t>0.081</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.150</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>0.852</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>RbohA</t>
+  </si>
+  <si>
+    <t>0.206</t>
+  </si>
+  <si>
+    <t>0.412</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.055</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.618</t>
+  </si>
+  <si>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>0.071</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>0.104</t>
+  </si>
+  <si>
+    <t>0.539</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>0.469</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.317</t>
+  </si>
+  <si>
+    <t>0.792</t>
+  </si>
+  <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>0.211</t>
+  </si>
+  <si>
+    <t>0.146</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>SnRK2</t>
+  </si>
+  <si>
+    <t>0.100</t>
+  </si>
+  <si>
+    <t>0.537</t>
+  </si>
+  <si>
+    <t>0.653</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>SP6A</t>
+  </si>
+  <si>
+    <t>0.530</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.073</t>
+  </si>
+  <si>
+    <t>0.120</t>
+  </si>
+  <si>
+    <t>Starch</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.387</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>Sucrose</t>
+  </si>
+  <si>
+    <t>0.862</t>
+  </si>
+  <si>
+    <t>0.826</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.138</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.137</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>0.854</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.620</t>
+  </si>
+  <si>
+    <t>SWEET</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.171</t>
+  </si>
+  <si>
+    <t>0.193</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.864</t>
+  </si>
+  <si>
+    <t>0.664</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>0.450</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.840</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
+    <t>0.092</t>
+  </si>
+  <si>
+    <t>0.420</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.273</t>
+  </si>
+  <si>
+    <t>Tyr</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.144</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>0.732</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.413</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.270</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>RD29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1639,34 +1646,43 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:U49" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:U49"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:U49" totalsRowShown="0">
+  <autoFilter ref="A1:U49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="21">
-    <tableColumn id="1" name="Variable"/>
-    <tableColumn id="2" name="D08 | PermP"/>
-    <tableColumn id="3" name="D08 | WelchP"/>
-    <tableColumn id="4" name="D14 | PermP"/>
-    <tableColumn id="5" name="D14 | WelchP"/>
-    <tableColumn id="6" name="H01 | PermP"/>
-    <tableColumn id="7" name="H01 | WelchP"/>
-    <tableColumn id="8" name="H07 | PermP"/>
-    <tableColumn id="9" name="H07 | WelchP"/>
-    <tableColumn id="10" name="H08 | PermP"/>
-    <tableColumn id="11" name="H08 | WelchP"/>
-    <tableColumn id="12" name="H14 | PermP"/>
-    <tableColumn id="13" name="H14 | WelchP"/>
-    <tableColumn id="14" name="HD08 | PermP"/>
-    <tableColumn id="15" name="HD08 | WelchP"/>
-    <tableColumn id="16" name="HD14 | PermP"/>
-    <tableColumn id="17" name="HD14 | WelchP"/>
-    <tableColumn id="18" name="W01 | PermP"/>
-    <tableColumn id="19" name="W01 | WelchP"/>
-    <tableColumn id="20" name="W07 | PermP"/>
-    <tableColumn id="21" name="W07 | WelchP"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Variable"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="D08 | PermP"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="D08 | WelchP"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="D14 | PermP"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="D14 | WelchP"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="H01 | PermP"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="H01 | WelchP"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="H07 | PermP"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="H07 | WelchP"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="H08 | PermP"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="H08 | WelchP"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="H14 | PermP"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="H14 | WelchP"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="HD08 | PermP"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="HD08 | WelchP"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="HD14 | PermP"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="HD14 | WelchP"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="W01 | PermP"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="W01 | WelchP"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="W07 | PermP"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="W07 | WelchP"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1950,14 +1966,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2087,7 +2105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -2152,7 +2170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -2217,7 +2235,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -2347,7 +2365,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -2412,7 +2430,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -2477,7 +2495,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -2542,7 +2560,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -2607,7 +2625,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -2672,7 +2690,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -2737,7 +2755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>186</v>
       </c>
@@ -2802,7 +2820,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -2867,7 +2885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -2932,7 +2950,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -2997,7 +3015,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -3062,7 +3080,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3127,7 +3145,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>252</v>
       </c>
@@ -3192,7 +3210,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>260</v>
       </c>
@@ -3257,7 +3275,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -3322,7 +3340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>278</v>
       </c>
@@ -3387,7 +3405,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>290</v>
       </c>
@@ -3452,7 +3470,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>302</v>
       </c>
@@ -3517,7 +3535,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -3582,7 +3600,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>326</v>
       </c>
@@ -3647,7 +3665,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>334</v>
       </c>
@@ -3712,7 +3730,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>344</v>
       </c>
@@ -3777,7 +3795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>350</v>
       </c>
@@ -3842,9 +3860,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>365</v>
+        <v>526</v>
       </c>
       <c r="B30" t="s">
         <v>143</v>
@@ -3862,13 +3880,13 @@
         <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H30" t="s">
         <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J30" t="s">
         <v>24</v>
@@ -3883,16 +3901,16 @@
         <v>50</v>
       </c>
       <c r="N30" t="s">
+        <v>367</v>
+      </c>
+      <c r="O30" t="s">
         <v>368</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" t="s">
         <v>369</v>
-      </c>
-      <c r="P30" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>370</v>
       </c>
       <c r="R30" t="s">
         <v>117</v>
@@ -3901,60 +3919,60 @@
         <v>309</v>
       </c>
       <c r="T30" t="s">
+        <v>370</v>
+      </c>
+      <c r="U30" t="s">
         <v>371</v>
       </c>
-      <c r="U30" t="s">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>373</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>374</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>375</v>
-      </c>
-      <c r="D31" t="s">
-        <v>376</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
       </c>
       <c r="F31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G31" t="s">
         <v>281</v>
       </c>
       <c r="H31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I31" t="s">
         <v>378</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>379</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>380</v>
-      </c>
-      <c r="K31" t="s">
-        <v>381</v>
       </c>
       <c r="L31" t="s">
         <v>296</v>
       </c>
       <c r="M31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N31" t="s">
         <v>361</v>
       </c>
       <c r="O31" t="s">
+        <v>382</v>
+      </c>
+      <c r="P31" t="s">
         <v>383</v>
-      </c>
-      <c r="P31" t="s">
-        <v>384</v>
       </c>
       <c r="Q31" t="s">
         <v>298</v>
@@ -3969,42 +3987,42 @@
         <v>246</v>
       </c>
       <c r="U31" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>386</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>387</v>
-      </c>
-      <c r="C32" t="s">
-        <v>388</v>
       </c>
       <c r="D32" t="s">
         <v>112</v>
       </c>
       <c r="E32" t="s">
+        <v>388</v>
+      </c>
+      <c r="F32" t="s">
         <v>389</v>
-      </c>
-      <c r="F32" t="s">
-        <v>390</v>
       </c>
       <c r="G32" t="s">
         <v>351</v>
       </c>
       <c r="H32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I32" t="s">
         <v>391</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>392</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>393</v>
-      </c>
-      <c r="K32" t="s">
-        <v>394</v>
       </c>
       <c r="L32" t="s">
         <v>24</v>
@@ -4013,10 +4031,10 @@
         <v>50</v>
       </c>
       <c r="N32" t="s">
+        <v>394</v>
+      </c>
+      <c r="O32" t="s">
         <v>395</v>
-      </c>
-      <c r="O32" t="s">
-        <v>396</v>
       </c>
       <c r="P32" t="s">
         <v>24</v>
@@ -4031,21 +4049,21 @@
         <v>363</v>
       </c>
       <c r="T32" t="s">
+        <v>396</v>
+      </c>
+      <c r="U32" t="s">
         <v>397</v>
       </c>
-      <c r="U32" t="s">
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>398</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>399</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -4057,7 +4075,7 @@
         <v>133</v>
       </c>
       <c r="G33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H33" t="s">
         <v>149</v>
@@ -4102,9 +4120,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -4119,10 +4137,10 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
+        <v>402</v>
+      </c>
+      <c r="G34" t="s">
         <v>403</v>
-      </c>
-      <c r="G34" t="s">
-        <v>404</v>
       </c>
       <c r="H34" t="s">
         <v>117</v>
@@ -4140,7 +4158,7 @@
         <v>212</v>
       </c>
       <c r="M34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N34" t="s">
         <v>49</v>
@@ -4167,9 +4185,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B35" t="s">
         <v>89</v>
@@ -4178,7 +4196,7 @@
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E35" t="s">
         <v>131</v>
@@ -4187,13 +4205,13 @@
         <v>156</v>
       </c>
       <c r="G35" t="s">
+        <v>406</v>
+      </c>
+      <c r="H35" t="s">
         <v>407</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>408</v>
-      </c>
-      <c r="I35" t="s">
-        <v>409</v>
       </c>
       <c r="J35" t="s">
         <v>205</v>
@@ -4202,7 +4220,7 @@
         <v>364</v>
       </c>
       <c r="L35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M35" t="s">
         <v>312</v>
@@ -4223,18 +4241,18 @@
         <v>128</v>
       </c>
       <c r="S35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T35" t="s">
         <v>93</v>
       </c>
       <c r="U35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>413</v>
       </c>
       <c r="B36" t="s">
         <v>282</v>
@@ -4264,7 +4282,7 @@
         <v>316</v>
       </c>
       <c r="K36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L36" t="s">
         <v>24</v>
@@ -4291,21 +4309,21 @@
         <v>240</v>
       </c>
       <c r="T36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U36" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>414</v>
+      </c>
+      <c r="B37" t="s">
         <v>415</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>416</v>
-      </c>
-      <c r="C37" t="s">
-        <v>417</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
@@ -4317,43 +4335,43 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
+        <v>417</v>
+      </c>
+      <c r="H37" t="s">
         <v>418</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>419</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>420</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>421</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>422</v>
-      </c>
-      <c r="L37" t="s">
-        <v>423</v>
       </c>
       <c r="M37" t="s">
         <v>351</v>
       </c>
       <c r="N37" t="s">
+        <v>423</v>
+      </c>
+      <c r="O37" t="s">
         <v>424</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q37" t="s">
         <v>425</v>
-      </c>
-      <c r="P37" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>426</v>
       </c>
       <c r="R37" t="s">
         <v>49</v>
       </c>
       <c r="S37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T37" t="s">
         <v>227</v>
@@ -4362,21 +4380,21 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>426</v>
+      </c>
+      <c r="B38" t="s">
         <v>427</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>428</v>
-      </c>
-      <c r="C38" t="s">
-        <v>429</v>
       </c>
       <c r="D38" t="s">
         <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F38" t="s">
         <v>24</v>
@@ -4388,19 +4406,19 @@
         <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J38" t="s">
         <v>80</v>
       </c>
       <c r="K38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L38" t="s">
         <v>67</v>
       </c>
       <c r="M38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N38" t="s">
         <v>24</v>
@@ -4409,10 +4427,10 @@
         <v>167</v>
       </c>
       <c r="P38" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q38" t="s">
         <v>434</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>435</v>
       </c>
       <c r="R38" t="s">
         <v>24</v>
@@ -4427,15 +4445,15 @@
         <v>271</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>527</v>
+      </c>
+      <c r="B39" t="s">
+        <v>435</v>
+      </c>
+      <c r="C39" t="s">
         <v>436</v>
-      </c>
-      <c r="B39" t="s">
-        <v>437</v>
-      </c>
-      <c r="C39" t="s">
-        <v>438</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -4447,84 +4465,84 @@
         <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H39" t="s">
         <v>128</v>
       </c>
       <c r="I39" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J39" t="s">
         <v>287</v>
       </c>
       <c r="K39" t="s">
+        <v>439</v>
+      </c>
+      <c r="L39" t="s">
+        <v>440</v>
+      </c>
+      <c r="M39" t="s">
         <v>441</v>
       </c>
-      <c r="L39" t="s">
-        <v>442</v>
-      </c>
-      <c r="M39" t="s">
-        <v>443</v>
-      </c>
       <c r="N39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P39" t="s">
         <v>284</v>
       </c>
       <c r="Q39" t="s">
+        <v>442</v>
+      </c>
+      <c r="R39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" t="s">
+        <v>24</v>
+      </c>
+      <c r="T39" t="s">
+        <v>24</v>
+      </c>
+      <c r="U39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>443</v>
+      </c>
+      <c r="B40" t="s">
         <v>444</v>
-      </c>
-      <c r="R39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39" t="s">
-        <v>24</v>
-      </c>
-      <c r="T39" t="s">
-        <v>24</v>
-      </c>
-      <c r="U39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>445</v>
-      </c>
-      <c r="B40" t="s">
-        <v>446</v>
       </c>
       <c r="C40" t="s">
         <v>353</v>
       </c>
       <c r="D40" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E40" t="s">
         <v>54</v>
       </c>
       <c r="F40" t="s">
+        <v>445</v>
+      </c>
+      <c r="G40" t="s">
+        <v>446</v>
+      </c>
+      <c r="H40" t="s">
+        <v>416</v>
+      </c>
+      <c r="I40" t="s">
         <v>447</v>
       </c>
-      <c r="G40" t="s">
+      <c r="J40" t="s">
         <v>448</v>
       </c>
-      <c r="H40" t="s">
-        <v>417</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>449</v>
-      </c>
-      <c r="J40" t="s">
-        <v>450</v>
-      </c>
-      <c r="K40" t="s">
-        <v>451</v>
       </c>
       <c r="L40" t="s">
         <v>92</v>
@@ -4533,10 +4551,10 @@
         <v>92</v>
       </c>
       <c r="N40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O40" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P40" t="s">
         <v>24</v>
@@ -4545,7 +4563,7 @@
         <v>103</v>
       </c>
       <c r="R40" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S40" t="s">
         <v>109</v>
@@ -4557,9 +4575,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B41" t="s">
         <v>257</v>
@@ -4580,7 +4598,7 @@
         <v>274</v>
       </c>
       <c r="H41" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I41" t="s">
         <v>159</v>
@@ -4589,7 +4607,7 @@
         <v>346</v>
       </c>
       <c r="K41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L41" t="s">
         <v>40</v>
@@ -4598,10 +4616,10 @@
         <v>89</v>
       </c>
       <c r="N41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O41" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P41" t="s">
         <v>24</v>
@@ -4610,21 +4628,21 @@
         <v>77</v>
       </c>
       <c r="R41" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S41" t="s">
         <v>214</v>
       </c>
       <c r="T41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U41" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -4642,13 +4660,13 @@
         <v>70</v>
       </c>
       <c r="G42" t="s">
+        <v>459</v>
+      </c>
+      <c r="H42" t="s">
+        <v>460</v>
+      </c>
+      <c r="I42" t="s">
         <v>461</v>
-      </c>
-      <c r="H42" t="s">
-        <v>462</v>
-      </c>
-      <c r="I42" t="s">
-        <v>463</v>
       </c>
       <c r="J42" t="s">
         <v>49</v>
@@ -4663,10 +4681,10 @@
         <v>50</v>
       </c>
       <c r="N42" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O42" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P42" t="s">
         <v>24</v>
@@ -4678,7 +4696,7 @@
         <v>268</v>
       </c>
       <c r="S42" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T42" t="s">
         <v>24</v>
@@ -4687,15 +4705,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C43" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D43" t="s">
         <v>208</v>
@@ -4707,7 +4725,7 @@
         <v>362</v>
       </c>
       <c r="G43" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H43" t="s">
         <v>24</v>
@@ -4722,10 +4740,10 @@
         <v>162</v>
       </c>
       <c r="L43" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M43" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N43" t="s">
         <v>24</v>
@@ -4752,15 +4770,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B44" t="s">
         <v>296</v>
       </c>
       <c r="C44" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D44" t="s">
         <v>193</v>
@@ -4775,10 +4793,10 @@
         <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I44" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J44" t="s">
         <v>24</v>
@@ -4787,10 +4805,10 @@
         <v>77</v>
       </c>
       <c r="L44" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M44" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N44" t="s">
         <v>24</v>
@@ -4799,10 +4817,10 @@
         <v>154</v>
       </c>
       <c r="P44" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Q44" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="R44" t="s">
         <v>310</v>
@@ -4811,66 +4829,66 @@
         <v>31</v>
       </c>
       <c r="T44" t="s">
+        <v>478</v>
+      </c>
+      <c r="U44" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>480</v>
       </c>
-      <c r="U44" t="s">
+      <c r="B45" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
+      <c r="C45" t="s">
         <v>482</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>483</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>484</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>485</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>486</v>
-      </c>
-      <c r="F45" t="s">
-        <v>487</v>
-      </c>
-      <c r="G45" t="s">
-        <v>488</v>
       </c>
       <c r="H45" t="s">
         <v>52</v>
       </c>
       <c r="I45" t="s">
+        <v>487</v>
+      </c>
+      <c r="J45" t="s">
+        <v>488</v>
+      </c>
+      <c r="K45" t="s">
+        <v>486</v>
+      </c>
+      <c r="L45" t="s">
         <v>489</v>
       </c>
-      <c r="J45" t="s">
+      <c r="M45" t="s">
         <v>490</v>
-      </c>
-      <c r="K45" t="s">
-        <v>488</v>
-      </c>
-      <c r="L45" t="s">
-        <v>491</v>
-      </c>
-      <c r="M45" t="s">
-        <v>492</v>
       </c>
       <c r="N45" t="s">
         <v>88</v>
       </c>
       <c r="O45" t="s">
+        <v>491</v>
+      </c>
+      <c r="P45" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q45" t="s">
         <v>493</v>
       </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>494</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>495</v>
-      </c>
-      <c r="R45" t="s">
-        <v>496</v>
       </c>
       <c r="S45" t="s">
         <v>187</v>
@@ -4882,15 +4900,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D46" t="s">
         <v>49</v>
@@ -4902,10 +4920,10 @@
         <v>266</v>
       </c>
       <c r="G46" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H46" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I46" t="s">
         <v>346</v>
@@ -4923,16 +4941,16 @@
         <v>24</v>
       </c>
       <c r="N46" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="O46" t="s">
         <v>212</v>
       </c>
       <c r="P46" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q46" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="R46" t="s">
         <v>300</v>
@@ -4944,36 +4962,36 @@
         <v>140</v>
       </c>
       <c r="U46" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>502</v>
+      </c>
+      <c r="B47" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
+      <c r="C47" t="s">
         <v>504</v>
-      </c>
-      <c r="B47" t="s">
-        <v>505</v>
-      </c>
-      <c r="C47" t="s">
-        <v>506</v>
       </c>
       <c r="D47" t="s">
         <v>241</v>
       </c>
       <c r="E47" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F47" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G47" t="s">
         <v>106</v>
       </c>
       <c r="H47" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J47" t="s">
         <v>24</v>
@@ -4985,7 +5003,7 @@
         <v>188</v>
       </c>
       <c r="M47" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="N47" t="s">
         <v>24</v>
@@ -4994,30 +5012,30 @@
         <v>364</v>
       </c>
       <c r="P47" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q47" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="R47" t="s">
         <v>323</v>
       </c>
       <c r="S47" t="s">
+        <v>510</v>
+      </c>
+      <c r="T47" t="s">
+        <v>511</v>
+      </c>
+      <c r="U47" t="s">
         <v>512</v>
       </c>
-      <c r="T47" t="s">
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>513</v>
       </c>
-      <c r="U47" t="s">
+      <c r="B48" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>515</v>
-      </c>
-      <c r="B48" t="s">
-        <v>516</v>
       </c>
       <c r="C48" t="s">
         <v>126</v>
@@ -5026,25 +5044,25 @@
         <v>117</v>
       </c>
       <c r="E48" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F48" t="s">
         <v>182</v>
       </c>
       <c r="G48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H48" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I48" t="s">
         <v>36</v>
       </c>
       <c r="J48" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K48" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L48" t="s">
         <v>24</v>
@@ -5077,39 +5095,39 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>518</v>
+      </c>
+      <c r="B49" t="s">
+        <v>519</v>
+      </c>
+      <c r="C49" t="s">
         <v>520</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
         <v>521</v>
       </c>
-      <c r="C49" t="s">
+      <c r="F49" t="s">
+        <v>474</v>
+      </c>
+      <c r="G49" t="s">
         <v>522</v>
       </c>
-      <c r="D49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="H49" t="s">
         <v>523</v>
       </c>
-      <c r="F49" t="s">
-        <v>476</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
         <v>524</v>
-      </c>
-      <c r="H49" t="s">
-        <v>525</v>
-      </c>
-      <c r="I49" t="s">
-        <v>526</v>
       </c>
       <c r="J49" t="s">
         <v>138</v>
       </c>
       <c r="K49" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L49" t="s">
         <v>49</v>
@@ -5121,7 +5139,7 @@
         <v>31</v>
       </c>
       <c r="O49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P49" t="s">
         <v>24</v>
@@ -5144,9 +5162,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>